--- a/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18550"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -25,6 +25,9 @@
     <t>名称</t>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
@@ -43,9 +46,6 @@
     <t>出售价格（单价）</t>
   </si>
   <si>
-    <t>解锁等级</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -61,6 +61,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>EquipType</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -79,12 +82,12 @@
     <t>SellingPrice</t>
   </si>
   <si>
-    <t>UnlockLevel</t>
-  </si>
-  <si>
     <t>杀猪刀</t>
   </si>
   <si>
+    <t>Arms</t>
+  </si>
+  <si>
     <t>精炼黑铁锻造而成的宝刀，造型平常，但锋利无比，威力无穷。</t>
   </si>
   <si>
@@ -112,7 +115,7 @@
     <t>Intermediate</t>
   </si>
   <si>
-    <t>3001|1|2;3001|2|3;3001|3|4;3002|1|2;3002|2|3;3002|3|4;3003|1|2;3003|2|3</t>
+    <t>3001|2;3001|3;3001|4;3002|2;3002|3;3002|4;3003|2;3003|3</t>
   </si>
   <si>
     <t>1.3;1.5;1.8;2.2;2.5;2.9;3.6;4.2;4.8</t>
@@ -133,7 +136,7 @@
     <t>Senior</t>
   </si>
   <si>
-    <t>3001|1|2|3;3001|2|3|4;3001|3|4|5;3002|1|2|3;3002|2|3|4;3002|3|4|5;3003|1|2|3;3003|2|3|5</t>
+    <t>3001|3;3001|4;3001|5;3002|3;3002|4;3002|5;3003|3;3003|5</t>
   </si>
   <si>
     <t>1.5;1.7;2.1;2.6;3;3.5;4.7;5.5;6.2</t>
@@ -152,6 +155,9 @@
   </si>
   <si>
     <t>紫藤甲</t>
+  </si>
+  <si>
+    <t>Armor</t>
   </si>
   <si>
     <t>紫藤甲轻且坚，能隔矢刃，然不敌火攻。穿上此甲，切记小心火烛。</t>
@@ -183,8 +189,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -211,8 +217,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,6 +287,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -245,14 +328,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,77 +339,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,43 +381,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,127 +507,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,6 +578,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -590,32 +616,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,20 +639,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,155 +681,152 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1182,24 +1185,24 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.4545454545455" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.0909090909091" style="3" customWidth="1"/>
-    <col min="3" max="3" width="44.5454545454545" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.7545454545455" style="3" customWidth="1"/>
-    <col min="5" max="5" width="48.1818181818182" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.3636363636364" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.6363636363636" style="3" customWidth="1"/>
-    <col min="8" max="8" width="43.8181818181818" style="3" customWidth="1"/>
-    <col min="9" max="9" width="33.7727272727273" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.5416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="61.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16" style="2" customWidth="1"/>
+    <col min="9" max="9" width="47.125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1257,7 +1260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1283,32 +1286,32 @@
         <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1316,206 +1319,204 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>101</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>102</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="3">
-        <v>2</v>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>103</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="3">
-        <v>3</v>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>104</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>501</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="3">
-        <v>5</v>
+      <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>502</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>30</v>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="3">
-        <v>6</v>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>503</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>37</v>
+      <c r="B11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="3">
-        <v>7</v>
+      <c r="G11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -97,7 +97,7 @@
     <t>3001|1;3001|2;3001|3;3002|1;3002|2;3002|3;3003|1;3003|2</t>
   </si>
   <si>
-    <t>1.2;1.4;1.6;1.9;2.2;2.5;3;3.5;4</t>
+    <t>1.2;1.3;1.4;1.5;1.7;1.9;2.1;2.3;2.5</t>
   </si>
   <si>
     <t>1006|5</t>
@@ -118,7 +118,7 @@
     <t>3001|2;3001|3;3001|4;3002|2;3002|3;3002|4;3003|2;3003|3</t>
   </si>
   <si>
-    <t>1.3;1.5;1.8;2.2;2.5;2.9;3.6;4.2;4.8</t>
+    <t>1.3;1.4;1.5;1.7;1.9;2.1;2.3;2.5;2.8</t>
   </si>
   <si>
     <t>1006|10;1008|5</t>
@@ -139,7 +139,7 @@
     <t>3001|3;3001|4;3001|5;3002|3;3002|4;3002|5;3003|3;3003|5</t>
   </si>
   <si>
-    <t>1.5;1.7;2.1;2.6;3;3.5;4.7;5.5;6.2</t>
+    <t>1.4;1.5;1.7;1.9;2.1;2.3;2.5;2.8;3.1</t>
   </si>
   <si>
     <t>1006|20;3102|5</t>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>四十米长偃月刀在手，可以让敌人先逃三十九米。</t>
+  </si>
+  <si>
+    <t>1.5;1.6;1.8;2;2.2;2.4;2.6;2.9;3.2</t>
   </si>
   <si>
     <t>紫藤甲</t>
@@ -211,12 +214,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -225,23 +272,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,26 +297,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,21 +312,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -309,46 +350,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,187 +372,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,26 +581,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -613,11 +596,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,39 +661,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,10 +684,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,133 +696,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,7 +1188,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1425,9 +1428,8 @@
         <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>45</v>
+      </c>
       <c r="I8" s="2" t="s">
         <v>42</v>
       </c>
@@ -1437,13 +1439,13 @@
         <v>501</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>24</v>
@@ -1455,7 +1457,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>28</v>
@@ -1466,13 +1468,13 @@
         <v>502</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>31</v>
@@ -1484,7 +1486,7 @@
         <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>35</v>
@@ -1495,13 +1497,13 @@
         <v>503</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>38</v>
@@ -1513,7 +1515,7 @@
         <v>40</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>42</v>

--- a/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
@@ -73,7 +73,7 @@
     <t>UpgradeCondition</t>
   </si>
   <si>
-    <t>Bonus</t>
+    <t>AtkRate</t>
   </si>
   <si>
     <t>BuildCondition</t>
@@ -192,8 +192,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -213,81 +213,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -297,10 +222,116 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,39 +343,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,187 +372,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,17 +581,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,24 +605,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -644,6 +620,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -655,6 +640,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,10 +684,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,133 +696,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1188,7 +1188,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="17180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -213,6 +213,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -221,22 +243,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -245,70 +302,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,6 +320,30 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -329,29 +351,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,13 +372,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,169 +480,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,9 +583,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,30 +640,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -644,37 +655,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,10 +684,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,133 +696,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1188,24 +1188,24 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J1:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.37272727272727" style="2" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.5416666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.5454545454545" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.7545454545455" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.3727272727273" style="2" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" customWidth="1"/>
-    <col min="9" max="9" width="47.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="47.1272727272727" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>

--- a/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -46,6 +46,9 @@
     <t>出售价格（单价）</t>
   </si>
   <si>
+    <t>图标名称</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>SellingPrice</t>
   </si>
   <si>
+    <t>IconName</t>
+  </si>
+  <si>
     <t>杀猪刀</t>
   </si>
   <si>
@@ -106,6 +112,9 @@
     <t>30;35;40;50;60;70;80;90;100</t>
   </si>
   <si>
+    <t>ShaZhuDao</t>
+  </si>
+  <si>
     <t>大环刀</t>
   </si>
   <si>
@@ -127,6 +136,9 @@
     <t>150;175;200;250;300;350;400;450;500</t>
   </si>
   <si>
+    <t>DaHuanDao</t>
+  </si>
+  <si>
     <t>屠龙刀</t>
   </si>
   <si>
@@ -148,6 +160,9 @@
     <t>750;875;1000;1250;1500;1750;2000;2250;2500</t>
   </si>
   <si>
+    <t>TuLongDao</t>
+  </si>
+  <si>
     <t>偃月刀</t>
   </si>
   <si>
@@ -157,6 +172,9 @@
     <t>1.5;1.6;1.8;2;2.2;2.4;2.6;2.9;3.2</t>
   </si>
   <si>
+    <t>YanYueDao</t>
+  </si>
+  <si>
     <t>紫藤甲</t>
   </si>
   <si>
@@ -169,6 +187,9 @@
     <t>1005|5</t>
   </si>
   <si>
+    <t>ZiTenJia</t>
+  </si>
+  <si>
     <t>银叶甲</t>
   </si>
   <si>
@@ -178,6 +199,9 @@
     <t>1005|10;1007|5</t>
   </si>
   <si>
+    <t>YinYejia</t>
+  </si>
+  <si>
     <t>软猬甲</t>
   </si>
   <si>
@@ -185,6 +209,9 @@
   </si>
   <si>
     <t>1005|20;3101|5</t>
+  </si>
+  <si>
+    <t>RuanWeiJia</t>
   </si>
 </sst>
 </file>
@@ -192,10 +219,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -222,13 +249,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -251,14 +271,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,7 +299,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -288,7 +315,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,7 +323,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,9 +353,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,13 +379,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,187 +399,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,6 +608,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -601,30 +652,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -636,6 +663,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,40 +705,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,133 +723,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,12 +1210,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J1:J3"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1202,10 +1229,11 @@
     <col min="7" max="7" width="39.3727272727273" style="2" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" customWidth="1"/>
     <col min="9" max="9" width="47.1272727272727" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="10" max="10" width="16.2727272727273" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,292 +1261,325 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>501</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>502</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="3">
         <v>503</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17180"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -46,7 +46,7 @@
     <t>出售价格（单价）</t>
   </si>
   <si>
-    <t>图标名称</t>
+    <t>锻造时长，秒</t>
   </si>
   <si>
     <t>A</t>
@@ -85,7 +85,7 @@
     <t>SellingPrice</t>
   </si>
   <si>
-    <t>IconName</t>
+    <t>ForgeTime</t>
   </si>
   <si>
     <t>杀猪刀</t>
@@ -112,9 +112,6 @@
     <t>30;35;40;50;60;70;80;90;100</t>
   </si>
   <si>
-    <t>ShaZhuDao</t>
-  </si>
-  <si>
     <t>大环刀</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>150;175;200;250;300;350;400;450;500</t>
   </si>
   <si>
-    <t>DaHuanDao</t>
-  </si>
-  <si>
     <t>屠龙刀</t>
   </si>
   <si>
@@ -160,9 +154,6 @@
     <t>750;875;1000;1250;1500;1750;2000;2250;2500</t>
   </si>
   <si>
-    <t>TuLongDao</t>
-  </si>
-  <si>
     <t>偃月刀</t>
   </si>
   <si>
@@ -172,9 +163,6 @@
     <t>1.5;1.6;1.8;2;2.2;2.4;2.6;2.9;3.2</t>
   </si>
   <si>
-    <t>YanYueDao</t>
-  </si>
-  <si>
     <t>紫藤甲</t>
   </si>
   <si>
@@ -187,9 +175,6 @@
     <t>1005|5</t>
   </si>
   <si>
-    <t>ZiTenJia</t>
-  </si>
-  <si>
     <t>银叶甲</t>
   </si>
   <si>
@@ -199,9 +184,6 @@
     <t>1005|10;1007|5</t>
   </si>
   <si>
-    <t>YinYejia</t>
-  </si>
-  <si>
     <t>软猬甲</t>
   </si>
   <si>
@@ -209,9 +191,6 @@
   </si>
   <si>
     <t>1005|20;3101|5</t>
-  </si>
-  <si>
-    <t>RuanWeiJia</t>
   </si>
 </sst>
 </file>
@@ -219,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -241,15 +220,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,60 +339,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,45 +362,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -399,37 +378,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,19 +528,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,37 +540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,79 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,6 +588,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -619,15 +613,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,23 +631,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,15 +661,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -705,16 +675,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,133 +702,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1212,28 +1191,28 @@
   <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.37272727272727" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.5454545454545" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.7545454545455" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.5416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.7583333333333" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.3727272727273" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" customWidth="1"/>
-    <col min="9" max="9" width="47.1272727272727" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.2727272727273" style="2" customWidth="1"/>
+    <col min="9" max="9" width="47.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1297,7 +1276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:10">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1326,10 +1305,10 @@
         <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:10">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1389,8 +1368,8 @@
       <c r="I5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>31</v>
+      <c r="J5" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1398,31 +1377,31 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>39</v>
+      <c r="J6" s="2">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1430,60 +1409,57 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>47</v>
+      <c r="J7" s="2">
+        <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1491,13 +1467,13 @@
         <v>501</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>26</v>
@@ -1509,13 +1485,13 @@
         <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>56</v>
+      <c r="J9" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1523,31 +1499,31 @@
         <v>502</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="J10" s="2">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1555,31 +1531,31 @@
         <v>503</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>64</v>
+      <c r="J11" s="2">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +49,9 @@
     <t>锻造时长，秒</t>
   </si>
   <si>
+    <t>图标名称</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>ForgeTime</t>
   </si>
   <si>
+    <t>IconName</t>
+  </si>
+  <si>
     <t>杀猪刀</t>
   </si>
   <si>
@@ -112,6 +118,9 @@
     <t>30;35;40;50;60;70;80;90;100</t>
   </si>
   <si>
+    <t>ShaZhuDao</t>
+  </si>
+  <si>
     <t>大环刀</t>
   </si>
   <si>
@@ -133,6 +142,9 @@
     <t>150;175;200;250;300;350;400;450;500</t>
   </si>
   <si>
+    <t>DaHuanDao</t>
+  </si>
+  <si>
     <t>屠龙刀</t>
   </si>
   <si>
@@ -154,6 +166,9 @@
     <t>750;875;1000;1250;1500;1750;2000;2250;2500</t>
   </si>
   <si>
+    <t>TuLongDao</t>
+  </si>
+  <si>
     <t>偃月刀</t>
   </si>
   <si>
@@ -163,6 +178,9 @@
     <t>1.5;1.6;1.8;2;2.2;2.4;2.6;2.9;3.2</t>
   </si>
   <si>
+    <t>YanYueDao</t>
+  </si>
+  <si>
     <t>紫藤甲</t>
   </si>
   <si>
@@ -175,6 +193,9 @@
     <t>1005|5</t>
   </si>
   <si>
+    <t>ZiTenJia</t>
+  </si>
+  <si>
     <t>银叶甲</t>
   </si>
   <si>
@@ -184,6 +205,9 @@
     <t>1005|10;1007|5</t>
   </si>
   <si>
+    <t>YinYejia</t>
+  </si>
+  <si>
     <t>软猬甲</t>
   </si>
   <si>
@@ -191,6 +215,9 @@
   </si>
   <si>
     <t>1005|20;3101|5</t>
+  </si>
+  <si>
+    <t>RuanWeiJia</t>
   </si>
 </sst>
 </file>
@@ -198,9 +225,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -220,16 +247,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,31 +307,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,24 +374,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,60 +389,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -378,187 +405,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,17 +614,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,50 +645,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,7 +668,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,10 +717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,133 +729,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1189,30 +1216,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.37272727272727" style="2" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.5416666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.7583333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.5454545454545" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.7545454545455" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.3727272727273" style="2" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" customWidth="1"/>
-    <col min="9" max="9" width="47.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="47.1272727272727" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.3727272727273" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.1818181818182" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1243,319 +1271,352 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2">
         <v>60</v>
       </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J6" s="2">
         <v>120</v>
       </c>
+      <c r="K6" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J7" s="2">
         <v>180</v>
       </c>
+      <c r="K7" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>501</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J9" s="2">
         <v>60</v>
       </c>
+      <c r="K9" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>502</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J10" s="2">
         <v>120</v>
       </c>
+      <c r="K10" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>503</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J11" s="2">
         <v>180</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14070"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -118,7 +118,7 @@
     <t>30;35;40;50;60;70;80;90;100</t>
   </si>
   <si>
-    <t>ShaZhuDao</t>
+    <t>shazhudao</t>
   </si>
   <si>
     <t>大环刀</t>
@@ -142,7 +142,7 @@
     <t>150;175;200;250;300;350;400;450;500</t>
   </si>
   <si>
-    <t>DaHuanDao</t>
+    <t>dahuandao</t>
   </si>
   <si>
     <t>屠龙刀</t>
@@ -166,7 +166,7 @@
     <t>750;875;1000;1250;1500;1750;2000;2250;2500</t>
   </si>
   <si>
-    <t>TuLongDao</t>
+    <t>tulongdao</t>
   </si>
   <si>
     <t>偃月刀</t>
@@ -178,7 +178,88 @@
     <t>1.5;1.6;1.8;2;2.2;2.4;2.6;2.9;3.2</t>
   </si>
   <si>
-    <t>YanYueDao</t>
+    <t>yanyuedao</t>
+  </si>
+  <si>
+    <t>打狗棒</t>
+  </si>
+  <si>
+    <t>丐帮代代相传的宝物，传说由明太祖亲赐，乃无上权力的象征。</t>
+  </si>
+  <si>
+    <t>dagoubang</t>
+  </si>
+  <si>
+    <t>红缨枪</t>
+  </si>
+  <si>
+    <t>枪乃百兵之王，威力无穷。今朝红缨在手，不日可缚苍龙。</t>
+  </si>
+  <si>
+    <t>hongyingqiang</t>
+  </si>
+  <si>
+    <t>金箍棒</t>
+  </si>
+  <si>
+    <t>金箍棒是传说中的兵器，世上本不该有，所以这一支可能是赝品。</t>
+  </si>
+  <si>
+    <t>jingubang</t>
+  </si>
+  <si>
+    <t>金蛇剑</t>
+  </si>
+  <si>
+    <t>手持金蛇剑，再配上金蛇剑法，便可独步武林，笑傲天下。</t>
+  </si>
+  <si>
+    <t>jinshejian</t>
+  </si>
+  <si>
+    <t>蒙古金刀</t>
+  </si>
+  <si>
+    <t>得此宝物，便可成为金刀驸马，从此荣华富贵，享用无穷。</t>
+  </si>
+  <si>
+    <t>menggujindao</t>
+  </si>
+  <si>
+    <t>玄铁匕首</t>
+  </si>
+  <si>
+    <t>玄铁匕首乃玄铁重剑重铸而成，传世仅此一柄，不可多得。</t>
+  </si>
+  <si>
+    <t>xuantiebishou</t>
+  </si>
+  <si>
+    <t>倚天剑</t>
+  </si>
+  <si>
+    <t>与屠龙刀齐名的绝世宝剑，锋利无比，无出其右。</t>
+  </si>
+  <si>
+    <t>yitianjian</t>
+  </si>
+  <si>
+    <t>血滴子</t>
+  </si>
+  <si>
+    <t>江湖中很少有人见过它，因为见过它的人都已经死了。</t>
+  </si>
+  <si>
+    <t>xuedizi</t>
+  </si>
+  <si>
+    <t>血刀</t>
+  </si>
+  <si>
+    <t>没听过血刀，血刀老祖总该听过吧，就问你怕不怕。</t>
+  </si>
+  <si>
+    <t>xuedao</t>
   </si>
   <si>
     <t>紫藤甲</t>
@@ -193,7 +274,7 @@
     <t>1005|5</t>
   </si>
   <si>
-    <t>ZiTenJia</t>
+    <t>zitengjia</t>
   </si>
   <si>
     <t>银叶甲</t>
@@ -205,7 +286,7 @@
     <t>1005|10;1007|5</t>
   </si>
   <si>
-    <t>YinYejia</t>
+    <t>yinyejia</t>
   </si>
   <si>
     <t>软猬甲</t>
@@ -217,7 +298,16 @@
     <t>1005|20;3101|5</t>
   </si>
   <si>
-    <t>RuanWeiJia</t>
+    <t>ruanweijia</t>
+  </si>
+  <si>
+    <t>明光铠</t>
+  </si>
+  <si>
+    <t>唐朝年间禁军统领所穿的铠甲，坚韧无比，只是有点重。</t>
+  </si>
+  <si>
+    <t>mingguangkai</t>
   </si>
 </sst>
 </file>
@@ -225,9 +315,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -246,8 +336,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,8 +359,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,19 +403,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,37 +419,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -352,23 +436,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,6 +457,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -405,61 +495,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,121 +669,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,22 +704,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,6 +743,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -660,24 +774,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,17 +793,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,10 +807,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,133 +819,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1216,31 +1306,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.5454545454545" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.7545454545455" style="2" customWidth="1"/>
-    <col min="6" max="6" width="61.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.3727272727273" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.5416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="48.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25" style="2" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" customWidth="1"/>
-    <col min="9" max="9" width="47.1272727272727" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.3727272727273" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25.1818181818182" style="2" customWidth="1"/>
+    <col min="9" max="9" width="34.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1275,7 +1365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:11">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1310,7 +1400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:11">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1345,7 +1435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:11">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,53 +1606,47 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2">
-        <v>501</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="2">
-        <v>60</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2">
-        <v>502</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1571,52 +1655,348 @@
       <c r="G10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="I10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="2">
-        <v>120</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
+        <v>107</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
+        <v>108</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
+        <v>109</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
+        <v>110</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2">
+        <v>111</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
+        <v>112</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2">
+        <v>113</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2">
+        <v>501</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="2">
+        <v>60</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2">
+        <v>502</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="2">
+        <v>120</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3">
         <v>503</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="H20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J20" s="2">
         <v>180</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>66</v>
+      <c r="K20" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2">
+        <v>504</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
@@ -145,6 +145,51 @@
     <t>dahuandao</t>
   </si>
   <si>
+    <t>红缨枪</t>
+  </si>
+  <si>
+    <t>枪乃百兵之王，威力无穷。今朝红缨在手，不日可缚苍龙。</t>
+  </si>
+  <si>
+    <t>hongyingqiang</t>
+  </si>
+  <si>
+    <t>金箍棒</t>
+  </si>
+  <si>
+    <t>金箍棒是传说中的兵器，世上本不该有，所以这一支可能是赝品。</t>
+  </si>
+  <si>
+    <t>jingubang</t>
+  </si>
+  <si>
+    <t>蒙古金刀</t>
+  </si>
+  <si>
+    <t>得此宝物，便可成为金刀驸马，从此荣华富贵，享用无穷。</t>
+  </si>
+  <si>
+    <t>menggujindao</t>
+  </si>
+  <si>
+    <t>血滴子</t>
+  </si>
+  <si>
+    <t>江湖中很少有人见过它，因为见过它的人都已经死了。</t>
+  </si>
+  <si>
+    <t>xuedizi</t>
+  </si>
+  <si>
+    <t>血刀</t>
+  </si>
+  <si>
+    <t>没听过血刀，血刀老祖总该听过吧，就问你怕不怕。</t>
+  </si>
+  <si>
+    <t>xuedao</t>
+  </si>
+  <si>
     <t>屠龙刀</t>
   </si>
   <si>
@@ -190,24 +235,6 @@
     <t>dagoubang</t>
   </si>
   <si>
-    <t>红缨枪</t>
-  </si>
-  <si>
-    <t>枪乃百兵之王，威力无穷。今朝红缨在手，不日可缚苍龙。</t>
-  </si>
-  <si>
-    <t>hongyingqiang</t>
-  </si>
-  <si>
-    <t>金箍棒</t>
-  </si>
-  <si>
-    <t>金箍棒是传说中的兵器，世上本不该有，所以这一支可能是赝品。</t>
-  </si>
-  <si>
-    <t>jingubang</t>
-  </si>
-  <si>
     <t>金蛇剑</t>
   </si>
   <si>
@@ -217,15 +244,6 @@
     <t>jinshejian</t>
   </si>
   <si>
-    <t>蒙古金刀</t>
-  </si>
-  <si>
-    <t>得此宝物，便可成为金刀驸马，从此荣华富贵，享用无穷。</t>
-  </si>
-  <si>
-    <t>menggujindao</t>
-  </si>
-  <si>
     <t>玄铁匕首</t>
   </si>
   <si>
@@ -242,24 +260,6 @@
   </si>
   <si>
     <t>yitianjian</t>
-  </si>
-  <si>
-    <t>血滴子</t>
-  </si>
-  <si>
-    <t>江湖中很少有人见过它，因为见过它的人都已经死了。</t>
-  </si>
-  <si>
-    <t>xuedizi</t>
-  </si>
-  <si>
-    <t>血刀</t>
-  </si>
-  <si>
-    <t>没听过血刀，血刀老祖总该听过吧，就问你怕不怕。</t>
-  </si>
-  <si>
-    <t>xuedao</t>
   </si>
   <si>
     <t>紫藤甲</t>
@@ -315,10 +315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -336,44 +336,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -388,8 +350,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,9 +443,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,60 +474,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,25 +495,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,157 +669,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,26 +704,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,30 +739,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -797,7 +758,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,10 +807,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,137 +819,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -957,6 +957,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1311,7 +1315,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1507,7 +1511,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -1541,327 +1545,329 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2">
-        <v>103</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="3">
+        <v>202</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="2">
-        <v>180</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="2">
-        <v>104</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="3">
+        <v>203</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>53</v>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="2">
-        <v>105</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="3">
+        <v>204</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>56</v>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="2">
-        <v>106</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="3">
+        <v>205</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>59</v>
+      <c r="K10" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="2">
-        <v>107</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="A11" s="3">
+        <v>206</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>62</v>
+      <c r="K11" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="2">
-        <v>108</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="3">
+        <v>301</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="J12" s="2">
+        <v>180</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="2">
-        <v>109</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="3">
+        <v>302</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="I13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="2">
-        <v>110</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="3">
+        <v>303</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="E14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="2">
-        <v>111</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="3">
+        <v>304</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="E15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="2">
-        <v>112</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="3">
+        <v>305</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="E16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="2">
-        <v>113</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="3">
+        <v>306</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="E17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1878,7 +1884,7 @@
       <c r="D18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1902,7 +1908,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2">
-        <v>502</v>
+        <v>601</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>86</v>
@@ -1913,7 +1919,7 @@
       <c r="D19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1936,10 +1942,10 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3">
-        <v>503</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="5">
+        <v>701</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1948,20 +1954,20 @@
       <c r="D20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>44</v>
+      <c r="E20" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="J20" s="2">
         <v>180</v>
@@ -1972,7 +1978,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2">
-        <v>504</v>
+        <v>702</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>94</v>
@@ -1984,22 +1990,25 @@
         <v>95</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A5:K17">
+    <sortCondition ref="A5"/>
+  </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
@@ -205,7 +205,7 @@
     <t>1.4;1.5;1.7;1.9;2.1;2.3;2.5;2.8;3.1</t>
   </si>
   <si>
-    <t>1006|20;3102|5</t>
+    <t>1006|20;3102|10</t>
   </si>
   <si>
     <t>750;875;1000;1250;1500;1750;2000;2250;2500</t>
@@ -295,7 +295,7 @@
     <t>以金丝混合劲藤编织而成，不仅能防护身体，还能反伤袭击之人。</t>
   </si>
   <si>
-    <t>1005|20;3101|5</t>
+    <t>1005|20;3101|10</t>
   </si>
   <si>
     <t>ruanweijia</t>
@@ -316,9 +316,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -336,104 +336,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -450,7 +360,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,22 +479,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -495,187 +495,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,11 +704,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,26 +777,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,55 +801,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -822,130 +822,130 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1315,7 +1315,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
@@ -115,7 +115,7 @@
     <t>1006|5</t>
   </si>
   <si>
-    <t>30;35;40;50;60;70;80;90;100</t>
+    <t>50;52;54;56;58;60;62;64;66</t>
   </si>
   <si>
     <t>shazhudao</t>
@@ -139,7 +139,7 @@
     <t>1006|10;1008|5</t>
   </si>
   <si>
-    <t>150;175;200;250;300;350;400;450;500</t>
+    <t>100;105;110;115;120;125;130;135;140</t>
   </si>
   <si>
     <t>dahuandao</t>
@@ -208,7 +208,7 @@
     <t>1006|20;3102|10</t>
   </si>
   <si>
-    <t>750;875;1000;1250;1500;1750;2000;2250;2500</t>
+    <t>200;210;220;230;240;250;260;270;280</t>
   </si>
   <si>
     <t>tulongdao</t>
@@ -315,10 +315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -336,63 +336,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,9 +358,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,13 +398,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,9 +419,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,17 +444,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -495,67 +495,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,19 +627,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,91 +645,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,17 +704,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,6 +754,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -759,58 +801,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,133 +819,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1315,7 +1315,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1567,7 +1567,7 @@
         <v>38</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J7" s="4"/>
@@ -1597,7 +1597,7 @@
       <c r="G8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -1626,7 +1626,7 @@
       <c r="G9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -1655,7 +1655,7 @@
       <c r="G10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -1684,7 +1684,7 @@
       <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K11" s="3" t="s">

--- a/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$4:$E$21</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -106,7 +107,7 @@
     <t>Primary</t>
   </si>
   <si>
-    <t>3001|1;3001|2;3001|3;3002|1;3002|2;3002|3;3003|1;3003|2</t>
+    <t>3001|1;3001|2;3001|4;3002|1;3002|2;3002|4;3003|2;3003|4</t>
   </si>
   <si>
     <t>1.2;1.3;1.4;1.5;1.7;1.9;2.1;2.3;2.5</t>
@@ -130,7 +131,7 @@
     <t>Intermediate</t>
   </si>
   <si>
-    <t>3001|2;3001|3;3001|4;3002|2;3002|3;3002|4;3003|2;3003|3</t>
+    <t>3001|2;3001|3;3001|5;3002|2;3002|3;3002|5;3003|3;3003|5</t>
   </si>
   <si>
     <t>1.3;1.4;1.5;1.7;1.9;2.1;2.3;2.5;2.8</t>
@@ -199,7 +200,7 @@
     <t>Senior</t>
   </si>
   <si>
-    <t>3001|3;3001|4;3001|5;3002|3;3002|4;3002|5;3003|3;3003|5</t>
+    <t>3001|3;3001|4;3001|6;3002|3;3002|4;3002|6;3003|4;3003|6</t>
   </si>
   <si>
     <t>1.4;1.5;1.7;1.9;2.1;2.3;2.5;2.8;3.1</t>
@@ -315,10 +316,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -337,7 +338,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -352,22 +369,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,15 +390,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,24 +413,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,10 +429,26 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -458,16 +467,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,67 +502,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,103 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,6 +730,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -745,17 +761,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -763,17 +768,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,10 +808,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,133 +820,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1313,9 +1314,9 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
@@ -316,10 +316,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -337,8 +337,104 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -354,69 +450,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -425,14 +462,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,36 +475,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,187 +496,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,8 +708,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,6 +729,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -740,6 +773,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,60 +802,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -820,133 +820,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1314,9 +1314,9 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1504,7 +1504,7 @@
         <v>32</v>
       </c>
       <c r="J5" s="2">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>33</v>
@@ -1539,7 +1539,7 @@
         <v>40</v>
       </c>
       <c r="J6" s="2">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>41</v>
@@ -1721,7 +1721,7 @@
         <v>63</v>
       </c>
       <c r="J12" s="2">
-        <v>180</v>
+        <v>1200</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>64</v>
@@ -1901,7 +1901,7 @@
         <v>32</v>
       </c>
       <c r="J18" s="2">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>85</v>
@@ -1936,7 +1936,7 @@
         <v>40</v>
       </c>
       <c r="J19" s="2">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>89</v>
@@ -1971,7 +1971,7 @@
         <v>63</v>
       </c>
       <c r="J20" s="2">
-        <v>180</v>
+        <v>1200</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>93</v>

--- a/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
@@ -137,7 +137,7 @@
     <t>1.3;1.4;1.5;1.7;1.9;2.1;2.3;2.5;2.8</t>
   </si>
   <si>
-    <t>1006|10;1008|5</t>
+    <t>1006|10;1008|10</t>
   </si>
   <si>
     <t>100;105;110;115;120;125;130;135;140</t>
@@ -284,7 +284,7 @@
     <t>银叶有韧性，质地轻薄，覆于布甲之上，可得银叶甲，刀枪莫入。</t>
   </si>
   <si>
-    <t>1005|10;1007|5</t>
+    <t>1005|10;1007|10</t>
   </si>
   <si>
     <t>yinyejia</t>
@@ -316,10 +316,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -338,6 +338,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -345,30 +352,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,51 +367,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,24 +389,53 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,6 +450,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -496,187 +496,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,54 +715,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -779,11 +731,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,10 +808,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -820,133 +820,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1316,7 +1316,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
@@ -113,7 +113,7 @@
     <t>1.2;1.3;1.4;1.5;1.7;1.9;2.1;2.3;2.5</t>
   </si>
   <si>
-    <t>1006|5</t>
+    <t>1006|10</t>
   </si>
   <si>
     <t>50;52;54;56;58;60;62;64;66</t>
@@ -137,7 +137,7 @@
     <t>1.3;1.4;1.5;1.7;1.9;2.1;2.3;2.5;2.8</t>
   </si>
   <si>
-    <t>1006|10;1008|10</t>
+    <t>1006|15;1008|10</t>
   </si>
   <si>
     <t>100;105;110;115;120;125;130;135;140</t>
@@ -272,7 +272,7 @@
     <t>紫藤甲轻且坚，能隔矢刃，然不敌火攻。穿上此甲，切记小心火烛。</t>
   </si>
   <si>
-    <t>1005|5</t>
+    <t>1005|10</t>
   </si>
   <si>
     <t>zitengjia</t>
@@ -284,7 +284,7 @@
     <t>银叶有韧性，质地轻薄，覆于布甲之上，可得银叶甲，刀枪莫入。</t>
   </si>
   <si>
-    <t>1005|10;1007|10</t>
+    <t>1005|15;1007|10</t>
   </si>
   <si>
     <t>yinyejia</t>
@@ -317,9 +317,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -338,13 +338,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -352,14 +345,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,7 +391,45 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -389,7 +437,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -399,29 +447,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,39 +468,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,187 +496,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,33 +707,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,19 +734,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,6 +751,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,145 +808,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1316,7 +1316,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1504,7 +1504,7 @@
         <v>32</v>
       </c>
       <c r="J5" s="2">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>33</v>
@@ -1539,7 +1539,7 @@
         <v>40</v>
       </c>
       <c r="J6" s="2">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>41</v>
@@ -1721,7 +1721,7 @@
         <v>63</v>
       </c>
       <c r="J12" s="2">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>64</v>
@@ -1901,7 +1901,7 @@
         <v>32</v>
       </c>
       <c r="J18" s="2">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>85</v>
@@ -1936,7 +1936,7 @@
         <v>40</v>
       </c>
       <c r="J19" s="2">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>89</v>
@@ -1971,7 +1971,7 @@
         <v>63</v>
       </c>
       <c r="J20" s="2">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>93</v>

--- a/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
@@ -316,10 +316,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -344,10 +344,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,15 +437,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,7 +452,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,52 +460,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -458,28 +480,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -502,31 +502,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,37 +664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,103 +676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,11 +707,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,8 +732,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,24 +779,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -788,17 +794,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,10 +808,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -820,133 +820,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1316,7 +1316,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
@@ -316,10 +316,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -335,13 +335,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -361,21 +354,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,14 +362,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -398,38 +369,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,7 +384,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -452,9 +392,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,7 +423,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,13 +496,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,169 +658,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,8 +708,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,56 +749,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,9 +770,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,10 +808,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -820,133 +820,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1316,7 +1316,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -122,6 +122,15 @@
     <t>shazhudao</t>
   </si>
   <si>
+    <t>红缨枪</t>
+  </si>
+  <si>
+    <t>一把普通的红缨枪，我爷爷的爷爷传给我的。</t>
+  </si>
+  <si>
+    <t>hongyingqiang</t>
+  </si>
+  <si>
     <t>大环刀</t>
   </si>
   <si>
@@ -146,15 +155,6 @@
     <t>dahuandao</t>
   </si>
   <si>
-    <t>红缨枪</t>
-  </si>
-  <si>
-    <t>枪乃百兵之王，威力无穷。今朝红缨在手，不日可缚苍龙。</t>
-  </si>
-  <si>
-    <t>hongyingqiang</t>
-  </si>
-  <si>
     <t>金箍棒</t>
   </si>
   <si>
@@ -248,7 +248,7 @@
     <t>玄铁匕首</t>
   </si>
   <si>
-    <t>玄铁匕首乃玄铁重剑重铸而成，传世仅此一柄，不可多得。</t>
+    <t>玄铁匕首乃玄铁重剑重铸而成，传世仅有数把，不可多得。</t>
   </si>
   <si>
     <t>xuantiebishou</t>
@@ -278,6 +278,15 @@
     <t>zitengjia</t>
   </si>
   <si>
+    <t>布甲</t>
+  </si>
+  <si>
+    <t>布甲这玩意儿吧，可能也就起个心理作用吧。</t>
+  </si>
+  <si>
+    <t>bujia</t>
+  </si>
+  <si>
     <t>银叶甲</t>
   </si>
   <si>
@@ -290,6 +299,24 @@
     <t>yinyejia</t>
   </si>
   <si>
+    <t>冰蝉丝甲</t>
+  </si>
+  <si>
+    <t>东西是好东西，价格也不菲，就是防护作用有点拉跨。</t>
+  </si>
+  <si>
+    <t>bingchansijia</t>
+  </si>
+  <si>
+    <t>虎皮甲</t>
+  </si>
+  <si>
+    <t>虎皮做铠甲，主要是威慑力大，敌人看了心里直哆嗦。</t>
+  </si>
+  <si>
+    <t>hupijia</t>
+  </si>
+  <si>
     <t>软猬甲</t>
   </si>
   <si>
@@ -309,6 +336,24 @@
   </si>
   <si>
     <t>mingguangkai</t>
+  </si>
+  <si>
+    <t>龙鳞甲</t>
+  </si>
+  <si>
+    <t>这可是真正的稀世珍宝，人间不可多得，防御力顶级。</t>
+  </si>
+  <si>
+    <t>longlinjia</t>
+  </si>
+  <si>
+    <t>玄铁铠甲</t>
+  </si>
+  <si>
+    <t>由上古玄铁锻造而成，穿上此甲，一夫当关，万夫莫开。</t>
+  </si>
+  <si>
+    <t>xuantiekaijia</t>
   </si>
 </sst>
 </file>
@@ -316,10 +361,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -337,24 +382,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,38 +411,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -407,7 +428,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -430,15 +451,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,8 +494,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,21 +525,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -496,187 +541,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,8 +753,71 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,45 +839,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -778,40 +847,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -820,31 +865,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -853,104 +898,104 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -961,7 +1006,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1311,12 +1355,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1512,7 +1556,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -1524,61 +1568,59 @@
         <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
+        <v>201</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="2">
+      <c r="G7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="2">
         <v>1200</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
+      <c r="K7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
         <v>202</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>203</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>45</v>
@@ -1590,24 +1632,24 @@
         <v>46</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="3">
-        <v>204</v>
+      <c r="A9" s="2">
+        <v>203</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>48</v>
@@ -1619,24 +1661,24 @@
         <v>49</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="3">
-        <v>205</v>
+      <c r="A10" s="2">
+        <v>204</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>51</v>
@@ -1648,24 +1690,24 @@
         <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="3">
-        <v>206</v>
+      <c r="A11" s="2">
+        <v>205</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>54</v>
@@ -1677,16 +1719,16 @@
         <v>55</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>56</v>
@@ -1885,7 +1927,7 @@
       <c r="D18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1909,7 +1951,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2">
-        <v>601</v>
+        <v>502</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>86</v>
@@ -1920,95 +1962,242 @@
       <c r="D19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>36</v>
+      <c r="E19" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1200</v>
-      </c>
-      <c r="K19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2">
+        <v>601</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="5">
-        <v>701</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1200</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1800</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2">
-        <v>702</v>
+        <v>602</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2">
+        <v>603</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="4">
+        <v>701</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="H23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>96</v>
+      <c r="J23" s="2">
+        <v>1800</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2">
+        <v>702</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2">
+        <v>703</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2">
+        <v>704</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:K17">
-    <sortCondition ref="A5"/>
+  <sortState ref="A18:K27">
+    <sortCondition ref="A18"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
@@ -382,6 +382,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -389,8 +434,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,53 +513,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,68 +525,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -541,187 +541,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,8 +753,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,11 +789,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,38 +831,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,10 +853,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -865,7 +865,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -874,124 +874,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1360,7 +1360,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1971,11 +1971,9 @@
       <c r="G19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
         <v>88</v>
       </c>

--- a/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/EquipmentConfig.xlsx
@@ -361,10 +361,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -383,10 +383,40 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,6 +428,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -405,8 +473,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,112 +520,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,187 +541,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,6 +752,17 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,6 +807,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -813,21 +845,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -836,27 +853,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -865,146 +871,155 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1360,23 +1375,23 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.5416666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="48.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16" style="2" customWidth="1"/>
-    <col min="9" max="9" width="34.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="4.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="44.5416666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="48.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16" style="3" customWidth="1"/>
+    <col min="9" max="9" width="34.75" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25" spans="1:11">
@@ -1520,70 +1535,70 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>101</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>600</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>102</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" s="2" customFormat="1" spans="1:11">
       <c r="A7" s="2">
         <v>201</v>
       </c>
@@ -1618,303 +1633,303 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" s="2" customFormat="1" spans="1:11">
       <c r="A8" s="2">
         <v>202</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" s="2" customFormat="1" spans="1:11">
       <c r="A9" s="2">
         <v>203</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" s="2" customFormat="1" spans="1:11">
       <c r="A10" s="2">
         <v>204</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" s="2" customFormat="1" spans="1:11">
       <c r="A11" s="2">
         <v>205</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>301</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="3">
         <v>1800</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>302</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>303</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>304</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>305</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>306</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" s="2" customFormat="1" spans="1:11">
       <c r="A18" s="2">
         <v>501</v>
       </c>
@@ -1927,7 +1942,7 @@
       <c r="D18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1949,7 +1964,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" s="2" customFormat="1" spans="1:11">
       <c r="A19" s="2">
         <v>502</v>
       </c>
@@ -1979,103 +1994,103 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>601</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>602</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>603</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="4">
+    <row r="23" s="2" customFormat="1" spans="1:11">
+      <c r="A23" s="6">
         <v>701</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2084,7 +2099,7 @@
       <c r="D23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="6" t="s">
         <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -2106,7 +2121,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" s="2" customFormat="1" spans="1:11">
       <c r="A24" s="2">
         <v>702</v>
       </c>
@@ -2135,7 +2150,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" s="2" customFormat="1" spans="1:11">
       <c r="A25" s="2">
         <v>703</v>
       </c>
@@ -2164,7 +2179,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" s="2" customFormat="1" spans="1:11">
       <c r="A26" s="2">
         <v>704</v>
       </c>
